--- a/docentes/Valerio González Valeria - Estadisticos 20242.xlsx
+++ b/docentes/Valerio González Valeria - Estadisticos 20242.xlsx
@@ -545,16 +545,19 @@
         <v>17</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>94.12</v>
+      </c>
+      <c r="H2">
+        <v>8.4</v>
       </c>
     </row>
   </sheetData>
@@ -685,7 +688,7 @@
         <v>9</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
